--- a/example/input.xlsx
+++ b/example/input.xlsx
@@ -254,6 +254,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1797,33 +1798,33 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AC6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/example/input.xlsx
+++ b/example/input.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="71">
   <si>
     <t xml:space="preserve">2019-02</t>
   </si>
@@ -134,24 +134,24 @@
     <t xml:space="preserve">Pulaski</t>
   </si>
   <si>
+    <t xml:space="preserve">Bashir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheDoctor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phlox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Culber</t>
+  </si>
+  <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">N2?</t>
   </si>
   <si>
-    <t xml:space="preserve">Bashir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TheDoctor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phlox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Culber</t>
-  </si>
-  <si>
     <t xml:space="preserve">Franklin</t>
   </si>
   <si>
@@ -227,19 +227,13 @@
     <t xml:space="preserve">Nachtdienst fix geplant - nur für Weihnachten o.Ä. vorgesehen</t>
   </si>
   <si>
-    <t xml:space="preserve">4_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12_2</t>
+    <t xml:space="preserve">4_2_4_1</t>
   </si>
   <si>
     <t xml:space="preserve">4_3</t>
   </si>
   <si>
-    <t xml:space="preserve">6_3</t>
+    <t xml:space="preserve">12_2_6_3</t>
   </si>
 </sst>
 </file>
@@ -629,30 +623,18 @@
       <c r="A4" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
@@ -660,39 +642,43 @@
         <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="W4" s="1"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="AC4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
@@ -751,7 +737,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
@@ -778,9 +764,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" s="2" t="s">
         <v>31</v>
       </c>
@@ -806,7 +790,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
@@ -859,60 +843,68 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="W8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
+      <c r="AC8" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -1360,7 +1352,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1467,15 +1459,15 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>2</v>
@@ -1484,38 +1476,38 @@
         <v>2</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2" s="1" t="n">
         <v>2</v>
@@ -1523,16 +1515,16 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1621,41 +1613,41 @@
         <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U4" s="1" t="n">
         <v>3</v>
@@ -1672,159 +1664,13 @@
         <v>3</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="1" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
